--- a/tech/solar-system/solar-system-param.xlsx
+++ b/tech/solar-system/solar-system-param.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>太阳</t>
   </si>
@@ -232,13 +232,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对数</t>
-  </si>
-  <si>
-    <t>对数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,7 +402,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,9 +532,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +540,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,19 +867,20 @@
   <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="4" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="10" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="10" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="13" customWidth="1"/>
     <col min="11" max="12" width="14.75" style="10" customWidth="1"/>
     <col min="13" max="13" width="9.25" customWidth="1"/>
     <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
@@ -892,33 +910,33 @@
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
+      <c r="D1" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
-        <v>54</v>
+      <c r="H1" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P1" s="11"/>
       <c r="S1" s="11"/>
@@ -931,25 +949,22 @@
       <c r="C2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="17"/>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="H2" s="21"/>
       <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="J2" s="20"/>
       <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -961,7 +976,7 @@
       <c r="C3">
         <v>696000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="18">
         <v>74</v>
       </c>
       <c r="F3">
@@ -972,37 +987,37 @@
         <f>F3/100000</f>
         <v>6.96</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="21">
         <f>LOG(G3,2)*20</f>
         <v>55.981746121480072</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="20">
         <f>25.38*10</f>
         <v>253.79999999999998</v>
       </c>
       <c r="K3" s="10">
         <v>25.38</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="21">
         <f>K3</f>
         <v>25.38</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N3" t="str">
         <f>"#star-"&amp;M3&amp;"{"</f>
         <v>#star-sun{</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P3" s="12">
         <f>-V3/2</f>
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="AA3" t="str">
@@ -1014,7 +1029,7 @@
         <v>-webkit-animation: spin 254s linear infinite;</v>
       </c>
       <c r="AC3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="str">
         <f>"#"&amp;M3&amp;" img{"</f>
@@ -1059,7 +1074,7 @@
       <c r="C4">
         <v>2440</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18">
         <v>10</v>
       </c>
       <c r="E4">
@@ -1073,69 +1088,69 @@
         <f t="shared" ref="G4:G11" si="1">F4/100000</f>
         <v>579.09335864100001</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="21">
         <v>100</v>
       </c>
       <c r="I4">
         <v>87.97</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="20">
         <f>I4/100</f>
         <v>0.87970000000000004</v>
       </c>
       <c r="K4" s="10">
         <v>59</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="21">
         <f t="shared" ref="L4:L11" si="2">K4</f>
         <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" ref="N4:N11" si="3">"#star-"&amp;M4&amp;"{"</f>
         <v>#star-mercury{</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" s="12">
         <f t="shared" ref="P4:P11" si="4">-V4/2</f>
         <v>-50</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S4" s="12">
         <f t="shared" ref="S4:S11" si="5">P4</f>
         <v>-50</v>
       </c>
       <c r="T4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" t="s">
         <v>65</v>
-      </c>
-      <c r="U4" t="s">
-        <v>67</v>
       </c>
       <c r="V4" s="12">
         <f t="shared" ref="V4:V11" si="6">H4</f>
         <v>100</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="12">
         <f t="shared" ref="Y4:Y11" si="7">V4</f>
         <v>100</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" ref="AA4:AA11" si="8">"animation: spin "&amp;ROUND(J4,0)&amp;"s linear infinite;"</f>
@@ -1146,7 +1161,7 @@
         <v>-webkit-animation: spin 1s linear infinite;</v>
       </c>
       <c r="AC4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" ref="AD4:AD11" si="10">"#"&amp;M4&amp;" img{"</f>
@@ -1191,7 +1206,7 @@
       <c r="C5">
         <v>6052</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="18">
         <v>16</v>
       </c>
       <c r="E5">
@@ -1205,69 +1220,69 @@
         <f t="shared" si="1"/>
         <v>1082.0414009430001</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="21">
         <v>140</v>
       </c>
       <c r="I5">
         <v>225</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="20">
         <f t="shared" ref="J5:J11" si="18">I5/100</f>
         <v>2.25</v>
       </c>
       <c r="K5" s="10">
         <v>243</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="21">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
         <v>#star-venus{</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P5" s="12">
         <f t="shared" si="4"/>
         <v>-70</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S5" s="12">
         <f t="shared" si="5"/>
         <v>-70</v>
       </c>
       <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" t="s">
         <v>65</v>
-      </c>
-      <c r="U5" t="s">
-        <v>67</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="12">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="Z5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="8"/>
@@ -1278,7 +1293,7 @@
         <v>-webkit-animation: spin 2s linear infinite;</v>
       </c>
       <c r="AC5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="10"/>
@@ -1323,7 +1338,7 @@
       <c r="C6">
         <v>6378</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="18">
         <v>16</v>
       </c>
       <c r="E6">
@@ -1337,13 +1352,13 @@
         <f t="shared" si="1"/>
         <v>1495.9787100000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="21">
         <v>180</v>
       </c>
       <c r="I6">
         <v>365.24</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="20">
         <f t="shared" si="18"/>
         <v>3.6524000000000001</v>
       </c>
@@ -1351,56 +1366,56 @@
         <f>(23*60+56)/(60*24)</f>
         <v>0.99722222222222223</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="21">
         <f t="shared" si="2"/>
         <v>0.99722222222222223</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
         <v>#star-earth{</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="4"/>
         <v>-90</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="5"/>
         <v>-90</v>
       </c>
       <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" t="s">
         <v>65</v>
-      </c>
-      <c r="U6" t="s">
-        <v>67</v>
       </c>
       <c r="V6" s="12">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="12">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Z6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="8"/>
@@ -1411,7 +1426,7 @@
         <v>-webkit-animation: spin 4s linear infinite;</v>
       </c>
       <c r="AC6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="10"/>
@@ -1456,7 +1471,7 @@
       <c r="C7">
         <v>3397</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="18">
         <v>12</v>
       </c>
       <c r="E7">
@@ -1470,13 +1485,13 @@
         <f t="shared" si="1"/>
         <v>2279.4227604270004</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="21">
         <v>240</v>
       </c>
       <c r="I7">
         <v>687</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="20">
         <f t="shared" si="18"/>
         <v>6.87</v>
       </c>
@@ -1484,56 +1499,56 @@
         <f>(24*60+37)/(60*24)</f>
         <v>1.0256944444444445</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="21">
         <f t="shared" si="2"/>
         <v>1.0256944444444445</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="3"/>
         <v>#star-mars{</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P7" s="12">
         <f t="shared" si="4"/>
         <v>-120</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" si="5"/>
         <v>-120</v>
       </c>
       <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" t="s">
         <v>65</v>
-      </c>
-      <c r="U7" t="s">
-        <v>67</v>
       </c>
       <c r="V7" s="12">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y7" s="12">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="Z7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="8"/>
@@ -1544,7 +1559,7 @@
         <v>-webkit-animation: spin 7s linear infinite;</v>
       </c>
       <c r="AC7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="10"/>
@@ -1589,7 +1604,7 @@
       <c r="C8">
         <v>71492</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="18">
         <v>42</v>
       </c>
       <c r="E8">
@@ -1603,14 +1618,14 @@
         <f t="shared" si="1"/>
         <v>7782.9788366459998</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="21">
         <v>350</v>
       </c>
       <c r="I8">
         <f>11.86*365</f>
         <v>4328.8999999999996</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="20">
         <f t="shared" si="18"/>
         <v>43.288999999999994</v>
       </c>
@@ -1618,56 +1633,56 @@
         <f>(9*60+50)/(60*24)</f>
         <v>0.40972222222222221</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="21">
         <f t="shared" si="2"/>
         <v>0.40972222222222221</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="3"/>
         <v>#star-jupiter{</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="4"/>
         <v>-175</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="5"/>
         <v>-175</v>
       </c>
       <c r="T8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" t="s">
         <v>65</v>
-      </c>
-      <c r="U8" t="s">
-        <v>67</v>
       </c>
       <c r="V8" s="12">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="12">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="Z8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="8"/>
@@ -1678,7 +1693,7 @@
         <v>-webkit-animation: spin 43s linear infinite;</v>
       </c>
       <c r="AC8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
@@ -1723,7 +1738,7 @@
       <c r="C9">
         <v>60268</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="18">
         <v>35</v>
       </c>
       <c r="E9">
@@ -1737,14 +1752,14 @@
         <f t="shared" si="1"/>
         <v>14293.926976178998</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="21">
         <v>400</v>
       </c>
       <c r="I9">
         <f>29.46*365</f>
         <v>10752.9</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="20">
         <f t="shared" si="18"/>
         <v>107.529</v>
       </c>
@@ -1752,56 +1767,56 @@
         <f>(10*60+39)/(60*24)</f>
         <v>0.44374999999999998</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="21">
         <f t="shared" si="2"/>
         <v>0.44374999999999998</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
         <v>#star-saturn{</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" si="5"/>
         <v>-200</v>
       </c>
       <c r="T9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" t="s">
         <v>65</v>
-      </c>
-      <c r="U9" t="s">
-        <v>67</v>
       </c>
       <c r="V9" s="12">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="12">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="Z9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="8"/>
@@ -1812,7 +1827,7 @@
         <v>-webkit-animation: spin 108s linear infinite;</v>
       </c>
       <c r="AC9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
@@ -1857,7 +1872,7 @@
       <c r="C10">
         <v>25559</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="18">
         <v>25</v>
       </c>
       <c r="E10">
@@ -1871,14 +1886,14 @@
         <f t="shared" si="1"/>
         <v>28750.317240264001</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="21">
         <v>450</v>
       </c>
       <c r="I10">
         <f>84.01*365</f>
         <v>30663.65</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="20">
         <f t="shared" si="18"/>
         <v>306.63650000000001</v>
       </c>
@@ -1886,56 +1901,56 @@
         <f>(17*60+14)/(60*24)</f>
         <v>0.71805555555555556</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="21">
         <f t="shared" si="2"/>
         <v>0.71805555555555556</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
         <v>#star-uranus{</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P10" s="12">
         <f t="shared" si="4"/>
         <v>-225</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S10" s="12">
         <f t="shared" si="5"/>
         <v>-225</v>
       </c>
       <c r="T10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" t="s">
         <v>65</v>
-      </c>
-      <c r="U10" t="s">
-        <v>67</v>
       </c>
       <c r="V10" s="12">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="W10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y10" s="12">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="Z10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="8"/>
@@ -1946,7 +1961,7 @@
         <v>-webkit-animation: spin 307s linear infinite;</v>
       </c>
       <c r="AC10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
@@ -1991,7 +2006,7 @@
       <c r="C11">
         <v>24764</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="18">
         <v>25</v>
       </c>
       <c r="E11">
@@ -2005,14 +2020,14 @@
         <f t="shared" si="1"/>
         <v>45044.517349583999</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="21">
         <v>500</v>
       </c>
       <c r="I11">
         <f>164.82*365</f>
         <v>60159.299999999996</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="20">
         <f t="shared" si="18"/>
         <v>601.59299999999996</v>
       </c>
@@ -2020,56 +2035,56 @@
         <f>(16*60+6)/(60*24)</f>
         <v>0.67083333333333328</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="21">
         <f t="shared" si="2"/>
         <v>0.67083333333333328</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
         <v>#star-neptune{</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="4"/>
         <v>-250</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="5"/>
         <v>-250</v>
       </c>
       <c r="T11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" t="s">
         <v>65</v>
-      </c>
-      <c r="U11" t="s">
-        <v>67</v>
       </c>
       <c r="V11" s="12">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="12">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="Z11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="8"/>
@@ -2080,7 +2095,7 @@
         <v>-webkit-animation: spin 602s linear infinite;</v>
       </c>
       <c r="AC11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="10"/>
@@ -2133,13 +2148,13 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2151,7 +2166,7 @@
       <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -2169,16 +2184,16 @@
       <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2203,7 @@
       <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
@@ -2204,7 +2219,7 @@
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="16"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
